--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -388,7 +393,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -401,14 +406,10 @@
     </xf>
     <xf numFmtId="37" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,6 +588,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -915,18 +924,18 @@
   <dimension ref="B4:N17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B16"/>
+      <selection activeCell="K4" sqref="K4:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C4" s="8"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -935,335 +944,335 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="25" t="s">
+      <c r="K4" s="15"/>
+      <c r="L4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="2:14" ht="16" thickBot="1">
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+    </row>
+    <row r="5" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="N5" s="22"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="14"/>
+      <c r="G6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M6" s="15" t="s">
+      <c r="M6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="N6" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:14">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17" t="s">
+      <c r="K7" s="19"/>
+      <c r="L7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="7"/>
       <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <v>5000</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19">
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="17">
         <v>5000</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="J8" s="17"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="7"/>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="17">
         <v>-3000</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19">
+      <c r="E9" s="17"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17">
         <v>-3000</v>
       </c>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="N9" s="17"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="7"/>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="17">
         <v>1000</v>
       </c>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="19">
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="17">
         <v>1000</v>
       </c>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19"/>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="7"/>
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="19">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17">
         <v>1000</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19">
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17">
         <v>-1000</v>
       </c>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="17">
         <v>-1000</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="19">
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17">
         <v>-1000</v>
       </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19">
+      <c r="D13" s="17"/>
+      <c r="E13" s="17">
         <v>500</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="19">
+      <c r="F13" s="18"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="17">
         <v>500</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-    </row>
-    <row r="14" spans="2:14">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="17">
         <v>500</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="17">
         <v>-500</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19">
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17">
         <f>-L15</f>
         <v>1500</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="19">
+      <c r="K15" s="15"/>
+      <c r="L15" s="17">
         <f>-SUM(L8:L14)</f>
         <v>-1500</v>
       </c>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19">
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17">
         <f>-M16-N16</f>
         <v>-4000</v>
       </c>
-      <c r="K16" s="21"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19">
+      <c r="K16" s="19"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17">
         <f>-SUM(M8:M15)</f>
         <v>3000</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="17">
         <f>-SUM(N8:N15)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="3:14">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="17">
         <f>SUM(D8:D16)</f>
         <v>2500</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="17">
         <f>SUM(E8:E16)</f>
         <v>0</v>
       </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="19">
+      <c r="F17" s="20"/>
+      <c r="G17" s="17">
         <f>SUM(G8:G16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="22"/>
-      <c r="I17" s="19">
+      <c r="H17" s="20"/>
+      <c r="I17" s="17">
         <f>SUM(I8:I16)</f>
         <v>5000</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="17">
         <f>SUM(J8:J16)</f>
         <v>-2500</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="19">
+      <c r="K17" s="15"/>
+      <c r="L17" s="17">
         <f>SUM(L8:L16)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="17">
         <f>SUM(M8:M16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="17">
         <f>SUM(N8:N16)</f>
         <v>0</v>
       </c>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -100,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -164,7 +169,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -369,6 +374,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -518,41 +560,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="2" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="2" borderId="8" xfId="137" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,9 +597,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -592,10 +610,37 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="146">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1083,315 +1128,317 @@
   <dimension ref="C3:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="H6" sqref="H6:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
+    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="6" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="16" thickBot="1">
-      <c r="C4" s="9"/>
-      <c r="D4" s="10" t="s">
+    <row r="4" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="13"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="14" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="21"/>
     </row>
-    <row r="5" spans="3:14" ht="30">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+    <row r="5" spans="3:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="18" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="33" customHeight="1">
-      <c r="C6" s="19" t="s">
+    <row r="6" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="13">
         <v>5000</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="20">
+      <c r="E6" s="13"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="13">
         <v>5000</v>
       </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
-    <row r="7" spans="3:14" ht="33" customHeight="1">
-      <c r="C7" s="19" t="s">
+    <row r="7" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="13">
         <v>-3000</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20">
+      <c r="E7" s="13"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13">
         <v>-3000</v>
       </c>
-      <c r="N7" s="20"/>
+      <c r="N7" s="13"/>
     </row>
-    <row r="8" spans="3:14" ht="33" customHeight="1">
-      <c r="C8" s="19" t="s">
+    <row r="8" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="13">
         <v>1000</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="20">
+      <c r="E8" s="13"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="13">
         <v>1000</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
-    <row r="9" spans="3:14" ht="33" customHeight="1">
-      <c r="C9" s="19" t="s">
+    <row r="9" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="20">
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="13">
         <v>1000</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="H9" s="28"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13">
         <v>-1000</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="33" customHeight="1">
-      <c r="C10" s="19" t="s">
+    <row r="10" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="13">
         <v>-1000</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="20">
+      <c r="E10" s="13"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="13">
         <v>-1000</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
     </row>
-    <row r="11" spans="3:14" ht="33" customHeight="1">
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
+      <c r="D11" s="13"/>
+      <c r="E11" s="13">
         <v>500</v>
       </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="20">
+      <c r="F11" s="28"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="13">
         <v>500</v>
       </c>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
     </row>
-    <row r="12" spans="3:14" ht="33" customHeight="1">
-      <c r="C12" s="19" t="s">
+    <row r="12" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="13">
         <v>500</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="13">
         <v>-500</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
     </row>
-    <row r="13" spans="3:14" ht="33" customHeight="1">
-      <c r="C13" s="19" t="s">
+    <row r="13" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20">
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13">
         <f>-L13</f>
         <v>1500</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="20">
+      <c r="K13" s="14"/>
+      <c r="L13" s="13">
         <f>-SUM(L6:L12)</f>
         <v>-1500</v>
       </c>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
     </row>
-    <row r="14" spans="3:14" ht="33" customHeight="1" thickBot="1">
-      <c r="C14" s="25" t="s">
+    <row r="14" spans="3:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26">
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18">
         <f>-SUM(M14:N14)</f>
         <v>-4000</v>
       </c>
-      <c r="K14" s="28"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26">
+      <c r="K14" s="19"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18">
         <f>-SUM(M6:M13)</f>
         <v>3000</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="18">
         <f>-SUM(N6:N13)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="33" customHeight="1">
-      <c r="C15" s="19" t="s">
+    <row r="15" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="15">
         <f>SUM(D6:D14)</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="15">
         <f>SUM(E6:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="24"/>
-      <c r="G15" s="23">
+      <c r="F15" s="16"/>
+      <c r="G15" s="15">
         <f>SUM(G6:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23">
+      <c r="H15" s="16"/>
+      <c r="I15" s="15">
         <f>SUM(I6:I14)</f>
         <v>5000</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="15">
         <f>SUM(J6:J14)</f>
         <v>-2500</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="F6:F14"/>
+    <mergeCell ref="H6:H14"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="M4:N4"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jasneet\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -594,51 +589,55 @@
     <xf numFmtId="37" fontId="5" fillId="0" borderId="15" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="37" fontId="5" fillId="0" borderId="11" xfId="137" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="137" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1128,39 +1127,39 @@
   <dimension ref="C3:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H14"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:14">
       <c r="C3" s="2"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="21"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="24"/>
     </row>
-    <row r="4" spans="3:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="16" thickBot="1">
       <c r="C4" s="4"/>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="20"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1170,20 +1169,20 @@
       <c r="H4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="21"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="3"/>
       <c r="L4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="M4" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="3:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="30">
       <c r="C5" s="8"/>
       <c r="D5" s="9" t="s">
         <v>7</v>
@@ -1217,233 +1216,233 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" ht="33" customHeight="1">
       <c r="C6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="14">
         <v>5000</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="14">
         <v>5000</v>
       </c>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" ht="33" customHeight="1">
       <c r="C7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="14">
         <v>-3000</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
+      <c r="E7" s="14"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14">
         <v>-3000</v>
       </c>
-      <c r="N7" s="13"/>
+      <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" ht="33" customHeight="1">
       <c r="C8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="14">
         <v>1000</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="13">
+      <c r="E8" s="14"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="14">
         <v>1000</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
     </row>
-    <row r="9" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" ht="33" customHeight="1">
       <c r="C9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="13">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="14">
         <v>1000</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="H9" s="26"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14">
         <v>-1000</v>
       </c>
     </row>
-    <row r="10" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" ht="33" customHeight="1">
       <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="14">
         <v>-1000</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="14">
         <v>-1000</v>
       </c>
-      <c r="H10" s="28"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" ht="33" customHeight="1">
       <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
         <v>500</v>
       </c>
-      <c r="F11" s="28"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="13">
+      <c r="F11" s="26"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="14">
         <v>500</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" ht="33" customHeight="1">
       <c r="C12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="14">
         <v>500</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>-500</v>
       </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" ht="33" customHeight="1">
       <c r="C13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13">
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14">
         <f>-L13</f>
         <v>1500</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="13">
+      <c r="K13" s="15"/>
+      <c r="L13" s="14">
         <f>-SUM(L6:L12)</f>
         <v>-1500</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
     </row>
-    <row r="14" spans="3:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="17" t="s">
+    <row r="14" spans="3:14" ht="33" customHeight="1" thickBot="1">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18">
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16">
         <f>-SUM(M14:N14)</f>
         <v>-4000</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18">
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16">
         <f>-SUM(M6:M13)</f>
         <v>3000</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="16">
         <f>-SUM(N6:N13)</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="3:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" ht="33" customHeight="1">
       <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="18">
         <f>SUM(D6:D14)</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <f>SUM(E6:E14)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="15">
+      <c r="F15" s="19"/>
+      <c r="G15" s="18">
         <f>SUM(G6:G14)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15">
+      <c r="H15" s="19"/>
+      <c r="I15" s="18">
         <f>SUM(I6:I14)</f>
         <v>5000</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="18">
         <f>SUM(J6:J14)</f>
         <v>-2500</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="L3:N3"/>
     <mergeCell ref="F6:F14"/>
     <mergeCell ref="H6:H14"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -1,16 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B7DF5B-D2E2-46B5-A187-9FB419A4E45E}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="17220" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -100,7 +112,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0;\ \(#,##0\)"/>
   </numFmts>
@@ -787,7 +799,7 @@
     <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="137"/>
+    <cellStyle name="Normal 2" xfId="137" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1123,326 +1135,326 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.875" customWidth="1"/>
+    <col min="4" max="4" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14">
-      <c r="C3" s="2"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="22" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="24"/>
     </row>
-    <row r="4" spans="3:14" ht="16" thickBot="1">
-      <c r="C4" s="4"/>
-      <c r="D4" s="28" t="s">
+    <row r="2" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="5" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="7" t="s">
+      <c r="H2" s="29"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="K2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="L2" s="29"/>
     </row>
-    <row r="5" spans="3:14" ht="30">
-      <c r="C5" s="8"/>
-      <c r="D5" s="9" t="s">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="11" t="s">
+      <c r="I3" s="3"/>
+      <c r="J3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="3:14" ht="33" customHeight="1">
-      <c r="C6" s="12" t="s">
+    <row r="4" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="14">
+      <c r="B4" s="14">
         <v>5000</v>
       </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="14">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14">
+        <v>-3000</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14">
+        <v>-3000</v>
+      </c>
+      <c r="L5" s="14"/>
+    </row>
+    <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="26"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="25"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="14"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="14">
-        <v>5000</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="14">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="14"/>
       <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="3:14" ht="33" customHeight="1">
-      <c r="C7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="14">
-        <v>-3000</v>
-      </c>
-      <c r="E7" s="14"/>
+    <row r="7" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="14">
+        <v>1000</v>
+      </c>
       <c r="F7" s="26"/>
       <c r="G7" s="14"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14">
-        <v>-3000</v>
-      </c>
-      <c r="N7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14">
+        <v>-1000</v>
+      </c>
     </row>
-    <row r="8" spans="3:14" ht="33" customHeight="1">
-      <c r="C8" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="14"/>
+    <row r="8" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="14">
+        <v>-1000</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="14">
+        <v>-1000</v>
+      </c>
       <c r="F8" s="26"/>
       <c r="G8" s="14"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="15"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" spans="3:14" ht="33" customHeight="1">
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="14"/>
+    <row r="9" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14">
+        <v>500</v>
+      </c>
+      <c r="D9" s="26"/>
       <c r="E9" s="14"/>
       <c r="F9" s="26"/>
-      <c r="G9" s="14">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="14">
+        <v>500</v>
+      </c>
+      <c r="K9" s="14"/>
       <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14">
-        <v>-1000</v>
-      </c>
     </row>
-    <row r="10" spans="3:14" ht="33" customHeight="1">
-      <c r="C10" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="14">
-        <v>-1000</v>
-      </c>
+    <row r="10" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="14">
+        <v>500</v>
+      </c>
+      <c r="C10" s="14">
+        <v>-500</v>
+      </c>
+      <c r="D10" s="26"/>
       <c r="E10" s="14"/>
       <c r="F10" s="26"/>
-      <c r="G10" s="14">
-        <v>-1000</v>
-      </c>
-      <c r="H10" s="26"/>
-      <c r="I10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
+      <c r="K10" s="14"/>
       <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
     </row>
-    <row r="11" spans="3:14" ht="33" customHeight="1">
-      <c r="C11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14">
-        <v>500</v>
-      </c>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="26"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14">
-        <v>500</v>
-      </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
+      <c r="H11" s="14">
+        <f>-J11</f>
+        <v>1500</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14">
+        <f>-SUM(J4:J10)</f>
+        <v>-1500</v>
+      </c>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="3:14" ht="33" customHeight="1">
-      <c r="C12" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="14">
-        <v>500</v>
-      </c>
-      <c r="E12" s="14">
-        <v>-500</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <f>-SUM(K12:L12)</f>
+        <v>-4000</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16">
+        <f>-SUM(K4:K11)</f>
+        <v>3000</v>
+      </c>
+      <c r="L12" s="16">
+        <f>-SUM(L4:L11)</f>
+        <v>1000</v>
+      </c>
     </row>
-    <row r="13" spans="3:14" ht="33" customHeight="1">
-      <c r="C13" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14">
-        <f>-L13</f>
-        <v>1500</v>
-      </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14">
-        <f>-SUM(L6:L12)</f>
-        <v>-1500</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="3:14" ht="33" customHeight="1" thickBot="1">
-      <c r="C14" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
-        <f>-SUM(M14:N14)</f>
-        <v>-4000</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16">
-        <f>-SUM(M6:M13)</f>
-        <v>3000</v>
-      </c>
-      <c r="N14" s="16">
-        <f>-SUM(N6:N13)</f>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="15" spans="3:14" ht="33" customHeight="1">
-      <c r="C15" s="12" t="s">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
-        <f>SUM(D6:D14)</f>
+      <c r="B13" s="18">
+        <f>SUM(B4:B12)</f>
         <v>2500</v>
       </c>
-      <c r="E15" s="18">
-        <f>SUM(E6:E14)</f>
+      <c r="C13" s="18">
+        <f>SUM(C4:C12)</f>
         <v>0</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="18">
-        <f>SUM(G6:G14)</f>
+      <c r="D13" s="19"/>
+      <c r="E13" s="18">
+        <f>SUM(E4:E12)</f>
         <v>0</v>
       </c>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18">
-        <f>SUM(I6:I14)</f>
+      <c r="F13" s="19"/>
+      <c r="G13" s="18">
+        <f>SUM(G4:G12)</f>
         <v>5000</v>
       </c>
-      <c r="J15" s="18">
-        <f>SUM(J6:J14)</f>
+      <c r="H13" s="18">
+        <f>SUM(H4:H12)</f>
         <v>-2500</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="F6:F14"/>
-    <mergeCell ref="H6:H14"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="D4:D12"/>
+    <mergeCell ref="F4:F12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE63E509-F776-4676-8CA8-654F70BA4221}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE60A2-8D3E-4319-9721-8B927B6B9A7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>Assets</t>
   </si>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -341,28 +341,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color rgb="FF8DB4E2"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color theme="1"/>
       </bottom>
       <diagonal/>
@@ -512,7 +494,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -596,24 +578,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -625,6 +589,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1117,7 +1084,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1135,32 +1102,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="39"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="39"/>
-      <c r="C2" s="40" t="s">
+      <c r="B2" s="33"/>
+      <c r="C2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
       <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
@@ -1170,24 +1137,24 @@
       <c r="H2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="11"/>
       <c r="M2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="N2" s="9"/>
-      <c r="O2" s="41" t="s">
+      <c r="O2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
     </row>
     <row r="3" spans="1:17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="39"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="13" t="s">
         <v>7</v>
       </c>
@@ -1440,32 +1407,32 @@
       <c r="P11" s="7"/>
       <c r="Q11" s="24"/>
     </row>
-    <row r="12" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="12"/>
-      <c r="E12" s="36"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="35"/>
+      <c r="G12" s="24"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="35"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="6"/>
-      <c r="K12" s="35">
+      <c r="K12" s="29">
         <v>-4000</v>
       </c>
       <c r="L12" s="11"/>
-      <c r="M12" s="35"/>
+      <c r="M12" s="24"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="37">
+      <c r="O12" s="28">
         <v>3000</v>
       </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="38">
+      <c r="Q12" s="22">
         <v>1000</v>
       </c>
     </row>
@@ -1476,36 +1443,37 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="37">
         <v>2500</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="33">
+      <c r="E13" s="37">
         <v>0</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="33">
+      <c r="G13" s="37">
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="22">
+      <c r="I13" s="37">
         <v>5000</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="22">
+      <c r="K13" s="37">
         <v>2500</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="33"/>
+      <c r="M13" s="37"/>
       <c r="N13" s="5"/>
-      <c r="O13" s="34"/>
+      <c r="O13" s="30"/>
       <c r="P13" s="7"/>
-      <c r="Q13" s="33"/>
+      <c r="Q13" s="37"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="C14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="O14" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEE60A2-8D3E-4319-9721-8B927B6B9A7B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B25F4F-C02B-46B0-B359-3D3EB37FCC0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Assets</t>
   </si>
@@ -245,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -333,15 +333,6 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
         <color rgb="FF8DB4E2"/>
       </top>
       <bottom style="thin">
@@ -494,7 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,7 +568,9 @@
     <xf numFmtId="37" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="37" fontId="7" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="37" fontId="7" fillId="0" borderId="0" xfId="135" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -589,9 +582,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1081,7 +1071,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -1443,37 +1433,37 @@
       <c r="B13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="37">
+      <c r="C13" s="32">
         <v>2500</v>
       </c>
       <c r="D13" s="12"/>
-      <c r="E13" s="37">
+      <c r="E13" s="32">
         <v>0</v>
       </c>
       <c r="F13" s="19"/>
-      <c r="G13" s="37">
+      <c r="G13" s="32">
         <v>0</v>
       </c>
       <c r="H13" s="19"/>
-      <c r="I13" s="37">
+      <c r="I13" s="32">
         <v>5000</v>
       </c>
       <c r="J13" s="6"/>
-      <c r="K13" s="37">
-        <v>2500</v>
+      <c r="K13" s="32">
+        <v>-2500</v>
       </c>
       <c r="L13" s="11"/>
-      <c r="M13" s="37"/>
+      <c r="M13" s="32">
+        <v>0</v>
+      </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="30"/>
+      <c r="O13" s="30">
+        <v>0</v>
+      </c>
       <c r="P13" s="7"/>
-      <c r="Q13" s="37"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="O14" s="32"/>
+      <c r="Q13" s="32">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/05.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SakshiV\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17B25F4F-C02B-46B0-B359-3D3EB37FCC0A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAFCAC56-22D4-44B5-BB62-A24D862F9860}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25365" windowHeight="17220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="25365" windowHeight="16425" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Assets</t>
   </si>
@@ -485,7 +485,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,6 +582,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="135" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="142">
@@ -1080,18 +1083,18 @@
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="29.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
     <col min="4" max="4" width="1.375" customWidth="1"/>
     <col min="6" max="6" width="2.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="2.625" customWidth="1"/>
     <col min="10" max="10" width="1.375" customWidth="1"/>
     <col min="12" max="12" width="2.625" style="1" customWidth="1"/>
     <col min="14" max="14" width="1.875" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="13.625" customWidth="1"/>
     <col min="16" max="16" width="1.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33"/>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -1103,13 +1106,11 @@
       <c r="J1" s="36"/>
       <c r="K1" s="36"/>
       <c r="L1" s="11"/>
-      <c r="M1" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
     </row>
     <row r="2" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="33"/>
@@ -1230,7 +1231,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="5"/>
       <c r="O5" s="26">
-        <v>-3000</v>
+        <v>3000</v>
       </c>
       <c r="P5" s="7"/>
       <c r="Q5" s="25"/>
@@ -1243,7 +1244,7 @@
         <v>25</v>
       </c>
       <c r="C6" s="22">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="25"/>
@@ -1255,7 +1256,7 @@
       <c r="K6" s="27"/>
       <c r="L6" s="11"/>
       <c r="M6" s="24">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="N6" s="5"/>
       <c r="O6" s="28"/>
@@ -1286,7 +1287,7 @@
       <c r="O7" s="26"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="24">
-        <v>-1000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -1386,11 +1387,13 @@
       <c r="I11" s="31"/>
       <c r="J11" s="6"/>
       <c r="K11" s="24">
-        <v>1500</v>
+        <f>-M11</f>
+        <v>4500</v>
       </c>
       <c r="L11" s="11"/>
       <c r="M11" s="24">
-        <v>-1500</v>
+        <f>-SUM(M4:M10)</f>
+        <v>-4500</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="26"/>
@@ -1413,17 +1416,20 @@
       <c r="I12" s="29"/>
       <c r="J12" s="6"/>
       <c r="K12" s="29">
-        <v>-4000</v>
+        <f>-O12-Q12</f>
+        <v>4000</v>
       </c>
       <c r="L12" s="11"/>
       <c r="M12" s="24"/>
       <c r="N12" s="5"/>
       <c r="O12" s="28">
-        <v>3000</v>
+        <f>-SUM(O4:O10)</f>
+        <v>-3000</v>
       </c>
       <c r="P12" s="7"/>
-      <c r="Q12" s="22">
-        <v>1000</v>
+      <c r="Q12" s="28">
+        <f>-SUM(Q4:Q10)</f>
+        <v>-1000</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1434,7 +1440,8 @@
         <v>31</v>
       </c>
       <c r="C13" s="32">
-        <v>2500</v>
+        <f>SUM(C4:C10)</f>
+        <v>5500</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="32">
@@ -1450,14 +1457,15 @@
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="32">
-        <v>-2500</v>
+        <f>K11-K12</f>
+        <v>500</v>
       </c>
       <c r="L13" s="11"/>
       <c r="M13" s="32">
         <v>0</v>
       </c>
       <c r="N13" s="5"/>
-      <c r="O13" s="30">
+      <c r="O13" s="32">
         <v>0</v>
       </c>
       <c r="P13" s="7"/>
